--- a/APM files/123087703/123087703 IMPORT 3 Room Type Rate Plan - deactivation.xlsx
+++ b/APM files/123087703/123087703 IMPORT 3 Room Type Rate Plan - deactivation.xlsx
@@ -1,37 +1,340 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Dev\workspace\APM files\123087703\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594A10CD-68B1-4F18-A997-5AD71E423E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14310" yWindow="5730" windowWidth="22830" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="93">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Room Type ID</t>
+  </si>
+  <si>
+    <t>Room Type Code</t>
+  </si>
+  <si>
+    <t>Rate Plan ID</t>
+  </si>
+  <si>
+    <t>Rate Plan Name</t>
+  </si>
+  <si>
+    <t>Expedia Collect Rate Plan Code</t>
+  </si>
+  <si>
+    <t>Rate Plan Status</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>84015645</t>
+  </si>
+  <si>
+    <t>320864652</t>
+  </si>
+  <si>
+    <t>387365184</t>
+  </si>
+  <si>
+    <t>84015652</t>
+  </si>
+  <si>
+    <t>320864646</t>
+  </si>
+  <si>
+    <t>387365165</t>
+  </si>
+  <si>
+    <t>84015641</t>
+  </si>
+  <si>
+    <t>320864641</t>
+  </si>
+  <si>
+    <t>387365167</t>
+  </si>
+  <si>
+    <t>84015633</t>
+  </si>
+  <si>
+    <t>320864644</t>
+  </si>
+  <si>
+    <t>387365179</t>
+  </si>
+  <si>
+    <t>84015601</t>
+  </si>
+  <si>
+    <t>320864612</t>
+  </si>
+  <si>
+    <t>387365156</t>
+  </si>
+  <si>
+    <t>84015602</t>
+  </si>
+  <si>
+    <t>320864597</t>
+  </si>
+  <si>
+    <t>387365124</t>
+  </si>
+  <si>
+    <t>84015612</t>
+  </si>
+  <si>
+    <t>320864602</t>
+  </si>
+  <si>
+    <t>387365130</t>
+  </si>
+  <si>
+    <t>91596651</t>
+  </si>
+  <si>
+    <t>321770100</t>
+  </si>
+  <si>
+    <t>389493764</t>
+  </si>
+  <si>
+    <t>44214311</t>
+  </si>
+  <si>
+    <t>216963899</t>
+  </si>
+  <si>
+    <t>266257808</t>
+  </si>
+  <si>
+    <t>44214351</t>
+  </si>
+  <si>
+    <t>217264592</t>
+  </si>
+  <si>
+    <t>268252895</t>
+  </si>
+  <si>
+    <t>83985543</t>
+  </si>
+  <si>
+    <t>320859637</t>
+  </si>
+  <si>
+    <t>387353479</t>
+  </si>
+  <si>
+    <t>83910664</t>
+  </si>
+  <si>
+    <t>320836234</t>
+  </si>
+  <si>
+    <t>387322955</t>
+  </si>
+  <si>
+    <t>89635013</t>
+  </si>
+  <si>
+    <t>321346850</t>
+  </si>
+  <si>
+    <t>388655718</t>
+  </si>
+  <si>
+    <t>388655719</t>
+  </si>
+  <si>
+    <t>321947542</t>
+  </si>
+  <si>
+    <t>389897819</t>
+  </si>
+  <si>
+    <t>389897820</t>
+  </si>
+  <si>
+    <t>321947548</t>
+  </si>
+  <si>
+    <t>389897865</t>
+  </si>
+  <si>
+    <t>389897866</t>
+  </si>
+  <si>
+    <t>321947550</t>
+  </si>
+  <si>
+    <t>389897886</t>
+  </si>
+  <si>
+    <t>389897888</t>
+  </si>
+  <si>
+    <t>91262497</t>
+  </si>
+  <si>
+    <t>321705444</t>
+  </si>
+  <si>
+    <t>389314193</t>
+  </si>
+  <si>
+    <t>389314194</t>
+  </si>
+  <si>
+    <t>321705449</t>
+  </si>
+  <si>
+    <t>389314195</t>
+  </si>
+  <si>
+    <t>389314196</t>
+  </si>
+  <si>
+    <t>321705456</t>
+  </si>
+  <si>
+    <t>389314201</t>
+  </si>
+  <si>
+    <t>389314202</t>
+  </si>
+  <si>
+    <t>321705473</t>
+  </si>
+  <si>
+    <t>389314213</t>
+  </si>
+  <si>
+    <t>389314214</t>
+  </si>
+  <si>
+    <t>321705480</t>
+  </si>
+  <si>
+    <t>389314219</t>
+  </si>
+  <si>
+    <t>389314220</t>
+  </si>
+  <si>
+    <t>321705483</t>
+  </si>
+  <si>
+    <t>389314221</t>
+  </si>
+  <si>
+    <t>389314222</t>
+  </si>
+  <si>
+    <t>x32320</t>
+  </si>
+  <si>
+    <t>x32312</t>
+  </si>
+  <si>
+    <t>x32322</t>
+  </si>
+  <si>
+    <t>xx421</t>
+  </si>
+  <si>
+    <t>x517</t>
+  </si>
+  <si>
+    <t>x32321</t>
+  </si>
+  <si>
+    <t>x32302</t>
+  </si>
+  <si>
+    <t>xRateC</t>
+  </si>
+  <si>
+    <t>xxStan</t>
+  </si>
+  <si>
+    <t>xStand</t>
+  </si>
+  <si>
+    <t>xx811</t>
+  </si>
+  <si>
+    <t>x36</t>
+  </si>
+  <si>
+    <t>xDudle</t>
+  </si>
+  <si>
+    <t>xTellu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +349,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,89 +673,1358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type Code</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan Name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Expedia Collect Rate Plan Code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Collect Rate Plan Code</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Inactive</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>123087703</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>123087703</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>123087703</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>123087703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>123087703</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>123087703</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>123087703</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>123087703</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>123087703</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>123087703</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>123087703</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>123087703</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>123087703</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>123087703</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>123087703</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>123087703</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>123087703</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>123087703</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>123087703</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>123087703</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>123087703</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>123087703</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>123087703</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>123087703</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>123087703</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>123087703</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>123087703</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>123087703</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>123087703</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>123087703</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>123087703</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>123087703</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>123087703</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>123087703</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>123087703</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>123087703</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>123087703</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>123087703</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>123087703</v>
+      </c>
+      <c r="C40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>123087703</v>
+      </c>
+      <c r="C41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>123087703</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>123087703</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>123087703</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>123087703</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>123087703</v>
+      </c>
+      <c r="C46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
